--- a/para/templateSwi.xlsx
+++ b/para/templateSwi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/02_Herts/03_VRF/23_PE/05_PWM_Losses/para/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1540" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BB1D649-DA61-46CC-AC8B-7E7B521E6A98}"/>
+  <xr:revisionPtr revIDLastSave="1557" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E13E7B3-DBAB-493A-BFF2-DC743ED50536}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>Parameter</t>
   </si>
@@ -484,18 +484,6 @@
     <t>If</t>
   </si>
   <si>
-    <t>Maximum rated blocking voltage, e.g. Vce,max or Vds, max</t>
-  </si>
-  <si>
-    <t>Vmax</t>
-  </si>
-  <si>
-    <t>maximum rated channel current, e.g. Ice,max or Ids,max</t>
-  </si>
-  <si>
-    <t>Imax</t>
-  </si>
-  <si>
     <t>On-State channel current</t>
   </si>
   <si>
@@ -527,6 +515,21 @@
   </si>
   <si>
     <t>Vg</t>
+  </si>
+  <si>
+    <t>Ifd (A)</t>
+  </si>
+  <si>
+    <t>Rated blocking voltage, e.g. Vce or Vds, used for linearly scaling switching losses</t>
+  </si>
+  <si>
+    <t>Rated channel current, e.g. Ice or Ids, used for linearly scaling switching losses</t>
+  </si>
+  <si>
+    <t>Vnom</t>
+  </si>
+  <si>
+    <t>Inom</t>
   </si>
 </sst>
 </file>
@@ -928,6 +931,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,15 +947,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5742,7 +5745,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -5835,7 +5838,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -5928,7 +5931,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6021,7 +6024,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6114,7 +6117,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6207,7 +6210,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6306,7 +6309,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6405,7 +6408,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6504,7 +6507,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6603,7 +6606,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6684,7 +6687,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Ice (A) / Ids (A)</a:t>
+                  <a:t>Ifd (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -19399,7 +19402,7 @@
         <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -19415,7 +19418,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19434,7 +19437,7 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -19442,7 +19445,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -19450,7 +19453,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -19458,7 +19461,7 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -19495,13 +19498,13 @@
   <dimension ref="A1:AA184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:P10"/>
+      <selection activeCell="A7" sqref="A7:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="112.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -19702,13 +19705,16 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
@@ -19791,16 +19797,16 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
@@ -19875,16 +19881,16 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
@@ -19937,16 +19943,16 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
@@ -20315,36 +20321,36 @@
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="42"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="42"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
@@ -20551,36 +20557,36 @@
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="45"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="42"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="42"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="45"/>
     </row>
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="33"/>
@@ -20787,36 +20793,36 @@
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="45"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="42"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="42"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="45"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
@@ -21023,36 +21029,36 @@
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="45"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="42"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="42"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="45"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="32"/>
@@ -21099,7 +21105,7 @@
     </row>
     <row r="95" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
-        <f>F$16</f>
+        <f>F$17</f>
         <v>0</v>
       </c>
       <c r="B95" s="17"/>
@@ -21115,7 +21121,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="29">
-        <f>G$16</f>
+        <f>G$17</f>
         <v>1</v>
       </c>
       <c r="B96" s="17"/>
@@ -21131,7 +21137,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="29">
-        <f>H$16</f>
+        <f>H$17</f>
         <v>5</v>
       </c>
       <c r="B97" s="17"/>
@@ -21147,7 +21153,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="29">
-        <f>I$16</f>
+        <f>I$17</f>
         <v>10</v>
       </c>
       <c r="B98" s="17"/>
@@ -21163,7 +21169,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
-        <f>J$16</f>
+        <f>J$17</f>
         <v>20</v>
       </c>
       <c r="B99" s="17"/>
@@ -21179,7 +21185,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="29">
-        <f>K$16</f>
+        <f>K$17</f>
         <v>50</v>
       </c>
       <c r="B100" s="17"/>
@@ -21195,7 +21201,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
-        <f>L$16</f>
+        <f>L$17</f>
         <v>100</v>
       </c>
       <c r="B101" s="17"/>
@@ -21211,8 +21217,8 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="29">
-        <f>M$16</f>
-        <v>300</v>
+        <f>M$17</f>
+        <v>150</v>
       </c>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -21259,37 +21265,37 @@
     </row>
     <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="43" t="s">
+      <c r="A112" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="44"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="44"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="44"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="45"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="42"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="40" t="s">
+      <c r="B113" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="42"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="45"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21508,36 +21514,36 @@
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="43" t="s">
+      <c r="A132" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="44"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="44"/>
-      <c r="K132" s="45"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="41"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="42"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="40" t="s">
+      <c r="B133" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="41"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
-      <c r="K133" s="42"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="44"/>
+      <c r="E133" s="44"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="44"/>
+      <c r="I133" s="44"/>
+      <c r="J133" s="44"/>
+      <c r="K133" s="45"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="32"/>
@@ -21744,36 +21750,36 @@
     </row>
     <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="43" t="s">
+      <c r="A152" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="B152" s="44"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="44"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="44"/>
-      <c r="I152" s="44"/>
-      <c r="J152" s="44"/>
-      <c r="K152" s="45"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="41"/>
+      <c r="F152" s="41"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="41"/>
+      <c r="K152" s="42"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B153" s="40" t="s">
+      <c r="B153" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="41"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="41"/>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="41"/>
-      <c r="J153" s="41"/>
-      <c r="K153" s="42"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="44"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="44"/>
+      <c r="I153" s="44"/>
+      <c r="J153" s="44"/>
+      <c r="K153" s="45"/>
     </row>
     <row r="154" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="32"/>
@@ -21980,36 +21986,36 @@
     </row>
     <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="43" t="s">
+      <c r="A172" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B172" s="44"/>
-      <c r="C172" s="44"/>
-      <c r="D172" s="44"/>
-      <c r="E172" s="44"/>
-      <c r="F172" s="44"/>
-      <c r="G172" s="44"/>
-      <c r="H172" s="44"/>
-      <c r="I172" s="44"/>
-      <c r="J172" s="44"/>
-      <c r="K172" s="45"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="41"/>
+      <c r="E172" s="41"/>
+      <c r="F172" s="41"/>
+      <c r="G172" s="41"/>
+      <c r="H172" s="41"/>
+      <c r="I172" s="41"/>
+      <c r="J172" s="41"/>
+      <c r="K172" s="42"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B173" s="40" t="s">
+      <c r="B173" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C173" s="41"/>
-      <c r="D173" s="41"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="41"/>
-      <c r="G173" s="41"/>
-      <c r="H173" s="41"/>
-      <c r="I173" s="41"/>
-      <c r="J173" s="41"/>
-      <c r="K173" s="42"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="44"/>
+      <c r="E173" s="44"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="44"/>
+      <c r="H173" s="44"/>
+      <c r="I173" s="44"/>
+      <c r="J173" s="44"/>
+      <c r="K173" s="45"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="32"/>
@@ -22216,22 +22222,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="B113:K113"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="A72:K72"/>
     <mergeCell ref="A152:K152"/>
     <mergeCell ref="B153:K153"/>
     <mergeCell ref="A172:K172"/>
     <mergeCell ref="B173:K173"/>
     <mergeCell ref="A132:K132"/>
     <mergeCell ref="B133:K133"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="B113:K113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/para/templateSwi.xlsx
+++ b/para/templateSwi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1623" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4CDF2D6-0E95-4D8A-AEFF-FAAEAC79738D}"/>
+  <xr:revisionPtr revIDLastSave="1626" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{455E1B7D-5DB3-5CCF-AD05-C2C8B9F71BE7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="30912" windowHeight="16752" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -1321,15 +1321,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1346,6 +1337,53 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1364,50 +1402,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2742,6 +2742,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2749,7 +2750,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2854,7 +2854,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3303,6 +3303,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3310,7 +3311,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4662,6 +4662,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4669,7 +4670,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6021,6 +6021,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6028,7 +6029,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7380,6 +7380,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7387,7 +7388,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8739,6 +8739,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8746,7 +8747,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10098,6 +10098,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10105,7 +10106,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11457,6 +11457,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11464,7 +11465,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12816,6 +12816,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12823,7 +12824,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12928,7 +12928,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13591,6 +13591,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13598,7 +13599,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -19577,6 +19577,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19966,11 +19970,11 @@
       <c r="F20" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71"/>
     </row>
     <row r="21" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -19994,10 +19998,10 @@
       <c r="J21" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="16" t="s">
         <v>182</v>
       </c>
     </row>
@@ -20020,7 +20024,7 @@
       <c r="F22" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="20"/>
+      <c r="J22" s="17"/>
       <c r="K22" t="s">
         <v>183</v>
       </c>
@@ -20047,7 +20051,7 @@
       <c r="F23" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="18"/>
       <c r="K23" t="s">
         <v>185</v>
       </c>
@@ -20059,7 +20063,7 @@
       <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="J24" s="22"/>
+      <c r="J24" s="19"/>
       <c r="K24" t="s">
         <v>187</v>
       </c>
@@ -20071,7 +20075,7 @@
       <c r="A25" s="3">
         <v>5</v>
       </c>
-      <c r="J25" s="23"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="5" t="s">
         <v>188</v>
       </c>
@@ -20092,7 +20096,7 @@
   <dimension ref="A1:AA184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:P27"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20107,221 +20111,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="52" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="64" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="64" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="64" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="64" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="64" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="64" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="53" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="12"/>
@@ -20334,2490 +20338,2505 @@
       <c r="AA7" s="8"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="64" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="64" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="64" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="64" t="s">
+      <c r="E11" s="56"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="64" t="s">
+      <c r="E12" s="56"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="64" t="s">
+      <c r="E13" s="56"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="56">
         <v>25</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="33">
         <v>25</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="33">
         <v>175</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="64" t="s">
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="64" t="s">
+      <c r="E15" s="56"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="56">
         <v>150</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="33">
         <v>0</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="33">
         <v>1</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="33">
         <v>5</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="33">
         <v>10</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="33">
         <v>20</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="33">
         <v>50</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="33">
         <v>100</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="33">
         <v>300</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="64" t="s">
+      <c r="N16" s="33"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="56">
         <v>75</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="33">
         <v>0</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="33">
         <v>1</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="33">
         <v>5</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="33">
         <v>10</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="33">
         <v>20</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="33">
         <v>50</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="33">
         <v>100</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="33">
         <v>150</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="64" t="s">
+      <c r="N17" s="33"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="64" t="s">
+      <c r="E18" s="56"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="53" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="64" t="s">
+      <c r="E19" s="56"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="53" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="64" t="s">
+      <c r="E20" s="56"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="53" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="64" t="s">
+      <c r="E21" s="56"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="53" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="64" t="s">
+      <c r="E22" s="56"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="64" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="53" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="64" t="s">
+      <c r="E24" s="56"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="53" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="64" t="s">
+      <c r="E25" s="56"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="53" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="64"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="65"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="36"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="52"/>
-      <c r="B34" s="44">
+      <c r="A34" s="79"/>
+      <c r="B34" s="35">
         <f t="shared" ref="B34" si="0">F$14</f>
         <v>25</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="36">
         <f t="shared" ref="C34" si="1">G$14</f>
         <v>175</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="36">
         <f t="shared" ref="D34:K34" si="2">H$14</f>
         <v>0</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="45">
+      <c r="I34" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="45">
+      <c r="J34" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40">
+      <c r="A35" s="31">
         <f>F$16</f>
         <v>0</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="47"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40">
+      <c r="A36" s="31">
         <f>G$16</f>
         <v>1</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="48"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="39"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40">
+      <c r="A37" s="31">
         <f>H$16</f>
         <v>5</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="48"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40">
+      <c r="A38" s="31">
         <f>I$16</f>
         <v>10</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="48"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="39"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="40">
+      <c r="A39" s="31">
         <f>J$16</f>
         <v>20</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="48"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="40">
+      <c r="A40" s="31">
         <f>K$16</f>
         <v>50</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="48"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="40">
+      <c r="A41" s="31">
         <f>L$16</f>
         <v>100</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="48"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="40">
+      <c r="A42" s="31">
         <f>M$16</f>
         <v>300</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="48"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="39"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="40">
+      <c r="A43" s="31">
         <f>N$16</f>
         <v>0</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="48"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="39"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="41">
+      <c r="A44" s="32">
         <f>O$16</f>
         <v>0</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="50"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="41"/>
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="36"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="74"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="39"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="77"/>
     </row>
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="52"/>
-      <c r="B54" s="44">
+      <c r="A54" s="79"/>
+      <c r="B54" s="35">
         <f t="shared" ref="B54" si="3">F$14</f>
         <v>25</v>
       </c>
-      <c r="C54" s="45">
+      <c r="C54" s="36">
         <f t="shared" ref="C54" si="4">G$14</f>
         <v>175</v>
       </c>
-      <c r="D54" s="45">
+      <c r="D54" s="36">
         <f t="shared" ref="D54" si="5">H$14</f>
         <v>0</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54" s="36">
         <f t="shared" ref="E54" si="6">I$14</f>
         <v>0</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="36">
         <f t="shared" ref="F54" si="7">J$14</f>
         <v>0</v>
       </c>
-      <c r="G54" s="45">
+      <c r="G54" s="36">
         <f t="shared" ref="G54" si="8">K$14</f>
         <v>0</v>
       </c>
-      <c r="H54" s="45">
+      <c r="H54" s="36">
         <f t="shared" ref="H54" si="9">L$14</f>
         <v>0</v>
       </c>
-      <c r="I54" s="45">
+      <c r="I54" s="36">
         <f t="shared" ref="I54" si="10">M$14</f>
         <v>0</v>
       </c>
-      <c r="J54" s="45">
+      <c r="J54" s="36">
         <f t="shared" ref="J54" si="11">N$14</f>
         <v>0</v>
       </c>
-      <c r="K54" s="46">
+      <c r="K54" s="37">
         <f t="shared" ref="K54" si="12">O$14</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="40">
+      <c r="A55" s="31">
         <f>F$16</f>
         <v>0</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="47"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="40">
+      <c r="A56" s="31">
         <f>G$16</f>
         <v>1</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="48"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="39"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40">
+      <c r="A57" s="31">
         <f>H$16</f>
         <v>5</v>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="48"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="39"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40">
+      <c r="A58" s="31">
         <f>I$16</f>
         <v>10</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="48"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="39"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40">
+      <c r="A59" s="31">
         <f>J$16</f>
         <v>20</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="48"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="39"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40">
+      <c r="A60" s="31">
         <f>K$16</f>
         <v>50</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="48"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="39"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40">
+      <c r="A61" s="31">
         <f>L$16</f>
         <v>100</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="48"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40">
+      <c r="A62" s="31">
         <f>M$16</f>
         <v>300</v>
       </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="48"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="39"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40">
+      <c r="A63" s="31">
         <f>N$16</f>
         <v>0</v>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="48"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="39"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="41">
+      <c r="A64" s="32">
         <f>O$16</f>
         <v>0</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="50"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="41"/>
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="36"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="74"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="39"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="77"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="52"/>
-      <c r="B74" s="44">
+      <c r="A74" s="79"/>
+      <c r="B74" s="35">
         <f t="shared" ref="B74" si="13">F$14</f>
         <v>25</v>
       </c>
-      <c r="C74" s="45">
+      <c r="C74" s="36">
         <f t="shared" ref="C74" si="14">G$14</f>
         <v>175</v>
       </c>
-      <c r="D74" s="45">
+      <c r="D74" s="36">
         <f t="shared" ref="D74" si="15">H$14</f>
         <v>0</v>
       </c>
-      <c r="E74" s="45">
+      <c r="E74" s="36">
         <f t="shared" ref="E74" si="16">I$14</f>
         <v>0</v>
       </c>
-      <c r="F74" s="45">
+      <c r="F74" s="36">
         <f t="shared" ref="F74" si="17">J$14</f>
         <v>0</v>
       </c>
-      <c r="G74" s="45">
+      <c r="G74" s="36">
         <f t="shared" ref="G74" si="18">K$14</f>
         <v>0</v>
       </c>
-      <c r="H74" s="45">
+      <c r="H74" s="36">
         <f t="shared" ref="H74" si="19">L$14</f>
         <v>0</v>
       </c>
-      <c r="I74" s="45">
+      <c r="I74" s="36">
         <f t="shared" ref="I74" si="20">M$14</f>
         <v>0</v>
       </c>
-      <c r="J74" s="45">
+      <c r="J74" s="36">
         <f t="shared" ref="J74" si="21">N$14</f>
         <v>0</v>
       </c>
-      <c r="K74" s="46">
+      <c r="K74" s="37">
         <f t="shared" ref="K74" si="22">O$14</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="40">
+      <c r="A75" s="31">
         <f>F$16</f>
         <v>0</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="47"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40">
+      <c r="A76" s="31">
         <f>G$16</f>
         <v>1</v>
       </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="48"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40">
+      <c r="A77" s="31">
         <f>H$16</f>
         <v>5</v>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="48"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
+      <c r="A78" s="31">
         <f>I$16</f>
         <v>10</v>
       </c>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="48"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40">
+      <c r="A79" s="31">
         <f>J$16</f>
         <v>20</v>
       </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="48"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40">
+      <c r="A80" s="31">
         <f>K$16</f>
         <v>50</v>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="48"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="39"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40">
+      <c r="A81" s="31">
         <f>L$16</f>
         <v>100</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="48"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="39"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40">
+      <c r="A82" s="31">
         <f>M$16</f>
         <v>300</v>
       </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="48"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="39"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40">
+      <c r="A83" s="31">
         <f>N$16</f>
         <v>0</v>
       </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="48"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="39"/>
     </row>
     <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="41">
+      <c r="A84" s="32">
         <f>O$16</f>
         <v>0</v>
       </c>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="50"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="41"/>
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="36"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="74"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="51" t="s">
+      <c r="A93" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="37" t="s">
+      <c r="B93" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="39"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="76"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="76"/>
+      <c r="K93" s="77"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="52"/>
-      <c r="B94" s="44">
+      <c r="A94" s="79"/>
+      <c r="B94" s="35">
         <f t="shared" ref="B94" si="23">F$14</f>
         <v>25</v>
       </c>
-      <c r="C94" s="45">
+      <c r="C94" s="36">
         <f t="shared" ref="C94" si="24">G$14</f>
         <v>175</v>
       </c>
-      <c r="D94" s="45">
+      <c r="D94" s="36">
         <f t="shared" ref="D94" si="25">H$14</f>
         <v>0</v>
       </c>
-      <c r="E94" s="45">
+      <c r="E94" s="36">
         <f t="shared" ref="E94" si="26">I$14</f>
         <v>0</v>
       </c>
-      <c r="F94" s="45">
+      <c r="F94" s="36">
         <f t="shared" ref="F94" si="27">J$14</f>
         <v>0</v>
       </c>
-      <c r="G94" s="45">
+      <c r="G94" s="36">
         <f t="shared" ref="G94" si="28">K$14</f>
         <v>0</v>
       </c>
-      <c r="H94" s="45">
+      <c r="H94" s="36">
         <f t="shared" ref="H94" si="29">L$14</f>
         <v>0</v>
       </c>
-      <c r="I94" s="45">
+      <c r="I94" s="36">
         <f t="shared" ref="I94" si="30">M$14</f>
         <v>0</v>
       </c>
-      <c r="J94" s="45">
+      <c r="J94" s="36">
         <f t="shared" ref="J94" si="31">N$14</f>
         <v>0</v>
       </c>
-      <c r="K94" s="46">
+      <c r="K94" s="37">
         <f t="shared" ref="K94" si="32">O$14</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="40">
+      <c r="A95" s="31">
         <f>F$17</f>
         <v>0</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="47"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="38"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40">
+      <c r="A96" s="31">
         <f>G$17</f>
         <v>1</v>
       </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="48"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="39"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="40">
+      <c r="A97" s="31">
         <f>H$17</f>
         <v>5</v>
       </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="48"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="39"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="40">
+      <c r="A98" s="31">
         <f>I$17</f>
         <v>10</v>
       </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="48"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="39"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="40">
+      <c r="A99" s="31">
         <f>J$17</f>
         <v>20</v>
       </c>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="48"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="39"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="40">
+      <c r="A100" s="31">
         <f>K$17</f>
         <v>50</v>
       </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="48"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="39"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="40">
+      <c r="A101" s="31">
         <f>L$17</f>
         <v>100</v>
       </c>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="48"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="39"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="40">
+      <c r="A102" s="31">
         <f>M$17</f>
         <v>150</v>
       </c>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="48"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="39"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="40">
+      <c r="A103" s="31">
         <f>N$16</f>
         <v>0</v>
       </c>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="48"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="39"/>
     </row>
     <row r="104" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="41">
+      <c r="A104" s="32">
         <f>O$16</f>
         <v>0</v>
       </c>
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49"/>
-      <c r="J104" s="49"/>
-      <c r="K104" s="50"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="41"/>
     </row>
     <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="35"/>
-      <c r="K112" s="36"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="73"/>
+      <c r="H112" s="73"/>
+      <c r="I112" s="73"/>
+      <c r="J112" s="73"/>
+      <c r="K112" s="74"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="51" t="s">
+      <c r="A113" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="37" t="s">
+      <c r="B113" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="39"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
+      <c r="K113" s="77"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="52"/>
-      <c r="B114" s="44">
+      <c r="A114" s="79"/>
+      <c r="B114" s="35">
         <f t="shared" ref="B114" si="33">F$14</f>
         <v>25</v>
       </c>
-      <c r="C114" s="45">
+      <c r="C114" s="36">
         <f t="shared" ref="C114" si="34">G$14</f>
         <v>175</v>
       </c>
-      <c r="D114" s="45">
+      <c r="D114" s="36">
         <f t="shared" ref="D114" si="35">H$14</f>
         <v>0</v>
       </c>
-      <c r="E114" s="45">
+      <c r="E114" s="36">
         <f t="shared" ref="E114" si="36">I$14</f>
         <v>0</v>
       </c>
-      <c r="F114" s="45">
+      <c r="F114" s="36">
         <f t="shared" ref="F114" si="37">J$14</f>
         <v>0</v>
       </c>
-      <c r="G114" s="45">
+      <c r="G114" s="36">
         <f t="shared" ref="G114" si="38">K$14</f>
         <v>0</v>
       </c>
-      <c r="H114" s="45">
+      <c r="H114" s="36">
         <f t="shared" ref="H114" si="39">L$14</f>
         <v>0</v>
       </c>
-      <c r="I114" s="45">
+      <c r="I114" s="36">
         <f t="shared" ref="I114" si="40">M$14</f>
         <v>0</v>
       </c>
-      <c r="J114" s="45">
+      <c r="J114" s="36">
         <f t="shared" ref="J114" si="41">N$14</f>
         <v>0</v>
       </c>
-      <c r="K114" s="46">
+      <c r="K114" s="37">
         <f t="shared" ref="K114" si="42">O$14</f>
         <v>0</v>
       </c>
       <c r="L114" s="1"/>
     </row>
     <row r="115" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="40">
+      <c r="A115" s="31">
         <f>F$17</f>
         <v>0</v>
       </c>
-      <c r="B115" s="43"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="43"/>
-      <c r="K115" s="47"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="38"/>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="40">
+      <c r="A116" s="31">
         <f>G$17</f>
         <v>1</v>
       </c>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="48"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="39"/>
       <c r="L116" s="1"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="40">
+      <c r="A117" s="31">
         <f>H$17</f>
         <v>5</v>
       </c>
-      <c r="B117" s="42"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="42"/>
-      <c r="E117" s="42"/>
-      <c r="F117" s="42"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="48"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="39"/>
       <c r="L117" s="1"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="40">
+      <c r="A118" s="31">
         <f>I$17</f>
         <v>10</v>
       </c>
-      <c r="B118" s="42"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="42"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
-      <c r="K118" s="48"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="39"/>
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="40">
+      <c r="A119" s="31">
         <f>J$17</f>
         <v>20</v>
       </c>
-      <c r="B119" s="42"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="42"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="42"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="42"/>
-      <c r="K119" s="48"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="39"/>
       <c r="L119" s="1"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="40">
+      <c r="A120" s="31">
         <f>K$17</f>
         <v>50</v>
       </c>
-      <c r="B120" s="42"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="42"/>
-      <c r="J120" s="42"/>
-      <c r="K120" s="48"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="39"/>
       <c r="L120" s="1"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="40">
+      <c r="A121" s="31">
         <f>L$17</f>
         <v>100</v>
       </c>
-      <c r="B121" s="42"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="42"/>
-      <c r="E121" s="42"/>
-      <c r="F121" s="42"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="42"/>
-      <c r="J121" s="42"/>
-      <c r="K121" s="48"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="39"/>
       <c r="L121" s="1"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="40">
+      <c r="A122" s="31">
         <f>M$17</f>
         <v>150</v>
       </c>
-      <c r="B122" s="42"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="42"/>
-      <c r="K122" s="48"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="39"/>
       <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="40">
+      <c r="A123" s="31">
         <f>N$17</f>
         <v>0</v>
       </c>
-      <c r="B123" s="42"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="42"/>
-      <c r="E123" s="42"/>
-      <c r="F123" s="42"/>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
-      <c r="K123" s="48"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="39"/>
       <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="41">
+      <c r="A124" s="32">
         <f>O$17</f>
         <v>0</v>
       </c>
-      <c r="B124" s="49"/>
-      <c r="C124" s="49"/>
-      <c r="D124" s="49"/>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49"/>
-      <c r="I124" s="49"/>
-      <c r="J124" s="49"/>
-      <c r="K124" s="50"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="41"/>
       <c r="L124" s="1"/>
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="35"/>
-      <c r="J132" s="35"/>
-      <c r="K132" s="36"/>
+      <c r="B132" s="73"/>
+      <c r="C132" s="73"/>
+      <c r="D132" s="73"/>
+      <c r="E132" s="73"/>
+      <c r="F132" s="73"/>
+      <c r="G132" s="73"/>
+      <c r="H132" s="73"/>
+      <c r="I132" s="73"/>
+      <c r="J132" s="73"/>
+      <c r="K132" s="74"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="51" t="s">
+      <c r="A133" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="39"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="76"/>
+      <c r="G133" s="76"/>
+      <c r="H133" s="76"/>
+      <c r="I133" s="76"/>
+      <c r="J133" s="76"/>
+      <c r="K133" s="77"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="52"/>
-      <c r="B134" s="44">
+      <c r="A134" s="79"/>
+      <c r="B134" s="35">
         <f t="shared" ref="B134" si="43">F$14</f>
         <v>25</v>
       </c>
-      <c r="C134" s="45">
+      <c r="C134" s="36">
         <f t="shared" ref="C134" si="44">G$14</f>
         <v>175</v>
       </c>
-      <c r="D134" s="45">
+      <c r="D134" s="36">
         <f t="shared" ref="D134" si="45">H$14</f>
         <v>0</v>
       </c>
-      <c r="E134" s="45">
+      <c r="E134" s="36">
         <f t="shared" ref="E134" si="46">I$14</f>
         <v>0</v>
       </c>
-      <c r="F134" s="45">
+      <c r="F134" s="36">
         <f t="shared" ref="F134" si="47">J$14</f>
         <v>0</v>
       </c>
-      <c r="G134" s="45">
+      <c r="G134" s="36">
         <f t="shared" ref="G134" si="48">K$14</f>
         <v>0</v>
       </c>
-      <c r="H134" s="45">
+      <c r="H134" s="36">
         <f t="shared" ref="H134" si="49">L$14</f>
         <v>0</v>
       </c>
-      <c r="I134" s="45">
+      <c r="I134" s="36">
         <f t="shared" ref="I134" si="50">M$14</f>
         <v>0</v>
       </c>
-      <c r="J134" s="45">
+      <c r="J134" s="36">
         <f t="shared" ref="J134" si="51">N$14</f>
         <v>0</v>
       </c>
-      <c r="K134" s="46">
+      <c r="K134" s="37">
         <f t="shared" ref="K134" si="52">O$14</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="40">
+      <c r="A135" s="31">
         <f>F$8</f>
         <v>0</v>
       </c>
-      <c r="B135" s="43"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
-      <c r="K135" s="47"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="34"/>
+      <c r="J135" s="34"/>
+      <c r="K135" s="38"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40">
+      <c r="A136" s="31">
         <f>G$8</f>
         <v>0</v>
       </c>
-      <c r="B136" s="42"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="42"/>
-      <c r="F136" s="42"/>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42"/>
-      <c r="J136" s="42"/>
-      <c r="K136" s="48"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="33"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="39"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="40">
+      <c r="A137" s="31">
         <f>H$8</f>
         <v>0</v>
       </c>
-      <c r="B137" s="42"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="42"/>
-      <c r="E137" s="42"/>
-      <c r="F137" s="42"/>
-      <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
-      <c r="I137" s="42"/>
-      <c r="J137" s="42"/>
-      <c r="K137" s="48"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="39"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="40">
+      <c r="A138" s="31">
         <f>I$8</f>
         <v>0</v>
       </c>
-      <c r="B138" s="42"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="42"/>
-      <c r="E138" s="42"/>
-      <c r="F138" s="42"/>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="42"/>
-      <c r="K138" s="48"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="33"/>
+      <c r="J138" s="33"/>
+      <c r="K138" s="39"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40">
+      <c r="A139" s="31">
         <f>J$8</f>
         <v>0</v>
       </c>
-      <c r="B139" s="42"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="42"/>
-      <c r="E139" s="42"/>
-      <c r="F139" s="42"/>
-      <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
-      <c r="I139" s="42"/>
-      <c r="J139" s="42"/>
-      <c r="K139" s="48"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="33"/>
+      <c r="J139" s="33"/>
+      <c r="K139" s="39"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="40">
+      <c r="A140" s="31">
         <f>K$8</f>
         <v>0</v>
       </c>
-      <c r="B140" s="42"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="42"/>
-      <c r="E140" s="42"/>
-      <c r="F140" s="42"/>
-      <c r="G140" s="42"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="42"/>
-      <c r="J140" s="42"/>
-      <c r="K140" s="48"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="33"/>
+      <c r="J140" s="33"/>
+      <c r="K140" s="39"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="40">
+      <c r="A141" s="31">
         <f>L$8</f>
         <v>0</v>
       </c>
-      <c r="B141" s="42"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="42"/>
-      <c r="E141" s="42"/>
-      <c r="F141" s="42"/>
-      <c r="G141" s="42"/>
-      <c r="H141" s="42"/>
-      <c r="I141" s="42"/>
-      <c r="J141" s="42"/>
-      <c r="K141" s="48"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="39"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="40">
+      <c r="A142" s="31">
         <f>M$8</f>
         <v>0</v>
       </c>
-      <c r="B142" s="42"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="42"/>
-      <c r="E142" s="42"/>
-      <c r="F142" s="42"/>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="42"/>
-      <c r="K142" s="48"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="33"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="39"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="40">
+      <c r="A143" s="31">
         <f>N$8</f>
         <v>0</v>
       </c>
-      <c r="B143" s="42"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="42"/>
-      <c r="E143" s="42"/>
-      <c r="F143" s="42"/>
-      <c r="G143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="42"/>
-      <c r="K143" s="48"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="33"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="39"/>
     </row>
     <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="41">
+      <c r="A144" s="32">
         <f>O$8</f>
         <v>0</v>
       </c>
-      <c r="B144" s="49"/>
-      <c r="C144" s="49"/>
-      <c r="D144" s="49"/>
-      <c r="E144" s="49"/>
-      <c r="F144" s="49"/>
-      <c r="G144" s="49"/>
-      <c r="H144" s="49"/>
-      <c r="I144" s="49"/>
-      <c r="J144" s="49"/>
-      <c r="K144" s="50"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="41"/>
     </row>
     <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="34" t="s">
+      <c r="A152" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="B152" s="35"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="35"/>
-      <c r="F152" s="35"/>
-      <c r="G152" s="35"/>
-      <c r="H152" s="35"/>
-      <c r="I152" s="35"/>
-      <c r="J152" s="35"/>
-      <c r="K152" s="36"/>
+      <c r="B152" s="73"/>
+      <c r="C152" s="73"/>
+      <c r="D152" s="73"/>
+      <c r="E152" s="73"/>
+      <c r="F152" s="73"/>
+      <c r="G152" s="73"/>
+      <c r="H152" s="73"/>
+      <c r="I152" s="73"/>
+      <c r="J152" s="73"/>
+      <c r="K152" s="74"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="51" t="s">
+      <c r="A153" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="38"/>
-      <c r="D153" s="38"/>
-      <c r="E153" s="38"/>
-      <c r="F153" s="38"/>
-      <c r="G153" s="38"/>
-      <c r="H153" s="38"/>
-      <c r="I153" s="38"/>
-      <c r="J153" s="38"/>
-      <c r="K153" s="39"/>
+      <c r="C153" s="76"/>
+      <c r="D153" s="76"/>
+      <c r="E153" s="76"/>
+      <c r="F153" s="76"/>
+      <c r="G153" s="76"/>
+      <c r="H153" s="76"/>
+      <c r="I153" s="76"/>
+      <c r="J153" s="76"/>
+      <c r="K153" s="77"/>
     </row>
     <row r="154" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="52"/>
-      <c r="B154" s="44">
+      <c r="A154" s="79"/>
+      <c r="B154" s="35">
         <f t="shared" ref="B154" si="53">F$14</f>
         <v>25</v>
       </c>
-      <c r="C154" s="45">
+      <c r="C154" s="36">
         <f t="shared" ref="C154" si="54">G$14</f>
         <v>175</v>
       </c>
-      <c r="D154" s="45">
+      <c r="D154" s="36">
         <f t="shared" ref="D154" si="55">H$14</f>
         <v>0</v>
       </c>
-      <c r="E154" s="45">
+      <c r="E154" s="36">
         <f t="shared" ref="E154" si="56">I$14</f>
         <v>0</v>
       </c>
-      <c r="F154" s="45">
+      <c r="F154" s="36">
         <f t="shared" ref="F154" si="57">J$14</f>
         <v>0</v>
       </c>
-      <c r="G154" s="45">
+      <c r="G154" s="36">
         <f t="shared" ref="G154" si="58">K$14</f>
         <v>0</v>
       </c>
-      <c r="H154" s="45">
+      <c r="H154" s="36">
         <f t="shared" ref="H154" si="59">L$14</f>
         <v>0</v>
       </c>
-      <c r="I154" s="45">
+      <c r="I154" s="36">
         <f t="shared" ref="I154" si="60">M$14</f>
         <v>0</v>
       </c>
-      <c r="J154" s="45">
+      <c r="J154" s="36">
         <f t="shared" ref="J154" si="61">N$14</f>
         <v>0</v>
       </c>
-      <c r="K154" s="46">
+      <c r="K154" s="37">
         <f t="shared" ref="K154" si="62">O$14</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="40">
+      <c r="A155" s="31">
         <f>F$8</f>
         <v>0</v>
       </c>
-      <c r="B155" s="43"/>
-      <c r="C155" s="43"/>
-      <c r="D155" s="43"/>
-      <c r="E155" s="43"/>
-      <c r="F155" s="43"/>
-      <c r="G155" s="43"/>
-      <c r="H155" s="43"/>
-      <c r="I155" s="43"/>
-      <c r="J155" s="43"/>
-      <c r="K155" s="47"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="34"/>
+      <c r="I155" s="34"/>
+      <c r="J155" s="34"/>
+      <c r="K155" s="38"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="40">
+      <c r="A156" s="31">
         <f>G$8</f>
         <v>0</v>
       </c>
-      <c r="B156" s="42"/>
-      <c r="C156" s="42"/>
-      <c r="D156" s="42"/>
-      <c r="E156" s="42"/>
-      <c r="F156" s="42"/>
-      <c r="G156" s="42"/>
-      <c r="H156" s="42"/>
-      <c r="I156" s="42"/>
-      <c r="J156" s="42"/>
-      <c r="K156" s="48"/>
+      <c r="B156" s="33"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="33"/>
+      <c r="I156" s="33"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="39"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="40">
+      <c r="A157" s="31">
         <f>H$8</f>
         <v>0</v>
       </c>
-      <c r="B157" s="42"/>
-      <c r="C157" s="42"/>
-      <c r="D157" s="42"/>
-      <c r="E157" s="42"/>
-      <c r="F157" s="42"/>
-      <c r="G157" s="42"/>
-      <c r="H157" s="42"/>
-      <c r="I157" s="42"/>
-      <c r="J157" s="42"/>
-      <c r="K157" s="48"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="33"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="39"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" s="40">
+      <c r="A158" s="31">
         <f>I$8</f>
         <v>0</v>
       </c>
-      <c r="B158" s="42"/>
-      <c r="C158" s="42"/>
-      <c r="D158" s="42"/>
-      <c r="E158" s="42"/>
-      <c r="F158" s="42"/>
-      <c r="G158" s="42"/>
-      <c r="H158" s="42"/>
-      <c r="I158" s="42"/>
-      <c r="J158" s="42"/>
-      <c r="K158" s="48"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="33"/>
+      <c r="I158" s="33"/>
+      <c r="J158" s="33"/>
+      <c r="K158" s="39"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="40">
+      <c r="A159" s="31">
         <f>J$8</f>
         <v>0</v>
       </c>
-      <c r="B159" s="42"/>
-      <c r="C159" s="42"/>
-      <c r="D159" s="42"/>
-      <c r="E159" s="42"/>
-      <c r="F159" s="42"/>
-      <c r="G159" s="42"/>
-      <c r="H159" s="42"/>
-      <c r="I159" s="42"/>
-      <c r="J159" s="42"/>
-      <c r="K159" s="48"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="33"/>
+      <c r="H159" s="33"/>
+      <c r="I159" s="33"/>
+      <c r="J159" s="33"/>
+      <c r="K159" s="39"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="40">
+      <c r="A160" s="31">
         <f>K$8</f>
         <v>0</v>
       </c>
-      <c r="B160" s="42"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="42"/>
-      <c r="E160" s="42"/>
-      <c r="F160" s="42"/>
-      <c r="G160" s="42"/>
-      <c r="H160" s="42"/>
-      <c r="I160" s="42"/>
-      <c r="J160" s="42"/>
-      <c r="K160" s="48"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="33"/>
+      <c r="I160" s="33"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="39"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="40">
+      <c r="A161" s="31">
         <f>L$8</f>
         <v>0</v>
       </c>
-      <c r="B161" s="42"/>
-      <c r="C161" s="42"/>
-      <c r="D161" s="42"/>
-      <c r="E161" s="42"/>
-      <c r="F161" s="42"/>
-      <c r="G161" s="42"/>
-      <c r="H161" s="42"/>
-      <c r="I161" s="42"/>
-      <c r="J161" s="42"/>
-      <c r="K161" s="48"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="33"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="39"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="40">
+      <c r="A162" s="31">
         <f>M$8</f>
         <v>0</v>
       </c>
-      <c r="B162" s="42"/>
-      <c r="C162" s="42"/>
-      <c r="D162" s="42"/>
-      <c r="E162" s="42"/>
-      <c r="F162" s="42"/>
-      <c r="G162" s="42"/>
-      <c r="H162" s="42"/>
-      <c r="I162" s="42"/>
-      <c r="J162" s="42"/>
-      <c r="K162" s="48"/>
+      <c r="B162" s="33"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="33"/>
+      <c r="J162" s="33"/>
+      <c r="K162" s="39"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="40">
+      <c r="A163" s="31">
         <f>N$8</f>
         <v>0</v>
       </c>
-      <c r="B163" s="42"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="42"/>
-      <c r="E163" s="42"/>
-      <c r="F163" s="42"/>
-      <c r="G163" s="42"/>
-      <c r="H163" s="42"/>
-      <c r="I163" s="42"/>
-      <c r="J163" s="42"/>
-      <c r="K163" s="48"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="33"/>
+      <c r="I163" s="33"/>
+      <c r="J163" s="33"/>
+      <c r="K163" s="39"/>
     </row>
     <row r="164" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="41">
+      <c r="A164" s="32">
         <f>O$8</f>
         <v>0</v>
       </c>
-      <c r="B164" s="49"/>
-      <c r="C164" s="49"/>
-      <c r="D164" s="49"/>
-      <c r="E164" s="49"/>
-      <c r="F164" s="49"/>
-      <c r="G164" s="49"/>
-      <c r="H164" s="49"/>
-      <c r="I164" s="49"/>
-      <c r="J164" s="49"/>
-      <c r="K164" s="50"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="40"/>
+      <c r="E164" s="40"/>
+      <c r="F164" s="40"/>
+      <c r="G164" s="40"/>
+      <c r="H164" s="40"/>
+      <c r="I164" s="40"/>
+      <c r="J164" s="40"/>
+      <c r="K164" s="41"/>
     </row>
     <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="34" t="s">
+      <c r="A172" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="B172" s="35"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
-      <c r="E172" s="35"/>
-      <c r="F172" s="35"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="35"/>
-      <c r="I172" s="35"/>
-      <c r="J172" s="35"/>
-      <c r="K172" s="36"/>
+      <c r="B172" s="73"/>
+      <c r="C172" s="73"/>
+      <c r="D172" s="73"/>
+      <c r="E172" s="73"/>
+      <c r="F172" s="73"/>
+      <c r="G172" s="73"/>
+      <c r="H172" s="73"/>
+      <c r="I172" s="73"/>
+      <c r="J172" s="73"/>
+      <c r="K172" s="74"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="51" t="s">
+      <c r="A173" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="B173" s="37" t="s">
+      <c r="B173" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C173" s="38"/>
-      <c r="D173" s="38"/>
-      <c r="E173" s="38"/>
-      <c r="F173" s="38"/>
-      <c r="G173" s="38"/>
-      <c r="H173" s="38"/>
-      <c r="I173" s="38"/>
-      <c r="J173" s="38"/>
-      <c r="K173" s="39"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="76"/>
+      <c r="E173" s="76"/>
+      <c r="F173" s="76"/>
+      <c r="G173" s="76"/>
+      <c r="H173" s="76"/>
+      <c r="I173" s="76"/>
+      <c r="J173" s="76"/>
+      <c r="K173" s="77"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="52"/>
-      <c r="B174" s="44">
+      <c r="A174" s="79"/>
+      <c r="B174" s="35">
         <f t="shared" ref="B174" si="63">F$14</f>
         <v>25</v>
       </c>
-      <c r="C174" s="45">
+      <c r="C174" s="36">
         <f t="shared" ref="C174" si="64">G$14</f>
         <v>175</v>
       </c>
-      <c r="D174" s="45">
+      <c r="D174" s="36">
         <f t="shared" ref="D174" si="65">H$14</f>
         <v>0</v>
       </c>
-      <c r="E174" s="45">
+      <c r="E174" s="36">
         <f t="shared" ref="E174" si="66">I$14</f>
         <v>0</v>
       </c>
-      <c r="F174" s="45">
+      <c r="F174" s="36">
         <f t="shared" ref="F174" si="67">J$14</f>
         <v>0</v>
       </c>
-      <c r="G174" s="45">
+      <c r="G174" s="36">
         <f t="shared" ref="G174" si="68">K$14</f>
         <v>0</v>
       </c>
-      <c r="H174" s="45">
+      <c r="H174" s="36">
         <f t="shared" ref="H174" si="69">L$14</f>
         <v>0</v>
       </c>
-      <c r="I174" s="45">
+      <c r="I174" s="36">
         <f t="shared" ref="I174" si="70">M$14</f>
         <v>0</v>
       </c>
-      <c r="J174" s="45">
+      <c r="J174" s="36">
         <f t="shared" ref="J174" si="71">N$14</f>
         <v>0</v>
       </c>
-      <c r="K174" s="46">
+      <c r="K174" s="37">
         <f t="shared" ref="K174" si="72">O$14</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="40">
+      <c r="A175" s="31">
         <f>F$8</f>
         <v>0</v>
       </c>
-      <c r="B175" s="43"/>
-      <c r="C175" s="43"/>
-      <c r="D175" s="43"/>
-      <c r="E175" s="43"/>
-      <c r="F175" s="43"/>
-      <c r="G175" s="43"/>
-      <c r="H175" s="43"/>
-      <c r="I175" s="43"/>
-      <c r="J175" s="43"/>
-      <c r="K175" s="47"/>
+      <c r="B175" s="34"/>
+      <c r="C175" s="34"/>
+      <c r="D175" s="34"/>
+      <c r="E175" s="34"/>
+      <c r="F175" s="34"/>
+      <c r="G175" s="34"/>
+      <c r="H175" s="34"/>
+      <c r="I175" s="34"/>
+      <c r="J175" s="34"/>
+      <c r="K175" s="38"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="40">
+      <c r="A176" s="31">
         <f>G$8</f>
         <v>0</v>
       </c>
-      <c r="B176" s="42"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="42"/>
-      <c r="E176" s="42"/>
-      <c r="F176" s="42"/>
-      <c r="G176" s="42"/>
-      <c r="H176" s="42"/>
-      <c r="I176" s="42"/>
-      <c r="J176" s="42"/>
-      <c r="K176" s="48"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
+      <c r="J176" s="33"/>
+      <c r="K176" s="39"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="40">
+      <c r="A177" s="31">
         <f>H$8</f>
         <v>0</v>
       </c>
-      <c r="B177" s="42"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="42"/>
-      <c r="E177" s="42"/>
-      <c r="F177" s="42"/>
-      <c r="G177" s="42"/>
-      <c r="H177" s="42"/>
-      <c r="I177" s="42"/>
-      <c r="J177" s="42"/>
-      <c r="K177" s="48"/>
+      <c r="B177" s="33"/>
+      <c r="C177" s="33"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="33"/>
+      <c r="I177" s="33"/>
+      <c r="J177" s="33"/>
+      <c r="K177" s="39"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="40">
+      <c r="A178" s="31">
         <f>I$8</f>
         <v>0</v>
       </c>
-      <c r="B178" s="42"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="42"/>
-      <c r="E178" s="42"/>
-      <c r="F178" s="42"/>
-      <c r="G178" s="42"/>
-      <c r="H178" s="42"/>
-      <c r="I178" s="42"/>
-      <c r="J178" s="42"/>
-      <c r="K178" s="48"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="33"/>
+      <c r="G178" s="33"/>
+      <c r="H178" s="33"/>
+      <c r="I178" s="33"/>
+      <c r="J178" s="33"/>
+      <c r="K178" s="39"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="40">
+      <c r="A179" s="31">
         <f>J$8</f>
         <v>0</v>
       </c>
-      <c r="B179" s="42"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="42"/>
-      <c r="E179" s="42"/>
-      <c r="F179" s="42"/>
-      <c r="G179" s="42"/>
-      <c r="H179" s="42"/>
-      <c r="I179" s="42"/>
-      <c r="J179" s="42"/>
-      <c r="K179" s="48"/>
+      <c r="B179" s="33"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
+      <c r="F179" s="33"/>
+      <c r="G179" s="33"/>
+      <c r="H179" s="33"/>
+      <c r="I179" s="33"/>
+      <c r="J179" s="33"/>
+      <c r="K179" s="39"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="40">
+      <c r="A180" s="31">
         <f>K$8</f>
         <v>0</v>
       </c>
-      <c r="B180" s="42"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="42"/>
-      <c r="E180" s="42"/>
-      <c r="F180" s="42"/>
-      <c r="G180" s="42"/>
-      <c r="H180" s="42"/>
-      <c r="I180" s="42"/>
-      <c r="J180" s="42"/>
-      <c r="K180" s="48"/>
+      <c r="B180" s="33"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="33"/>
+      <c r="I180" s="33"/>
+      <c r="J180" s="33"/>
+      <c r="K180" s="39"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="40">
+      <c r="A181" s="31">
         <f>L$8</f>
         <v>0</v>
       </c>
-      <c r="B181" s="42"/>
-      <c r="C181" s="42"/>
-      <c r="D181" s="42"/>
-      <c r="E181" s="42"/>
-      <c r="F181" s="42"/>
-      <c r="G181" s="42"/>
-      <c r="H181" s="42"/>
-      <c r="I181" s="42"/>
-      <c r="J181" s="42"/>
-      <c r="K181" s="48"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="33"/>
+      <c r="I181" s="33"/>
+      <c r="J181" s="33"/>
+      <c r="K181" s="39"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="40">
+      <c r="A182" s="31">
         <f>M$8</f>
         <v>0</v>
       </c>
-      <c r="B182" s="42"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="42"/>
-      <c r="E182" s="42"/>
-      <c r="F182" s="42"/>
-      <c r="G182" s="42"/>
-      <c r="H182" s="42"/>
-      <c r="I182" s="42"/>
-      <c r="J182" s="42"/>
-      <c r="K182" s="48"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33"/>
+      <c r="G182" s="33"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
+      <c r="J182" s="33"/>
+      <c r="K182" s="39"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="40">
+      <c r="A183" s="31">
         <f>N$8</f>
         <v>0</v>
       </c>
-      <c r="B183" s="42"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="42"/>
-      <c r="E183" s="42"/>
-      <c r="F183" s="42"/>
-      <c r="G183" s="42"/>
-      <c r="H183" s="42"/>
-      <c r="I183" s="42"/>
-      <c r="J183" s="42"/>
-      <c r="K183" s="48"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33"/>
+      <c r="G183" s="33"/>
+      <c r="H183" s="33"/>
+      <c r="I183" s="33"/>
+      <c r="J183" s="33"/>
+      <c r="K183" s="39"/>
     </row>
     <row r="184" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="41">
+      <c r="A184" s="32">
         <f>O$8</f>
         <v>0</v>
       </c>
-      <c r="B184" s="49"/>
-      <c r="C184" s="49"/>
-      <c r="D184" s="49"/>
-      <c r="E184" s="49"/>
-      <c r="F184" s="49"/>
-      <c r="G184" s="49"/>
-      <c r="H184" s="49"/>
-      <c r="I184" s="49"/>
-      <c r="J184" s="49"/>
-      <c r="K184" s="50"/>
+      <c r="B184" s="40"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="40"/>
+      <c r="F184" s="40"/>
+      <c r="G184" s="40"/>
+      <c r="H184" s="40"/>
+      <c r="I184" s="40"/>
+      <c r="J184" s="40"/>
+      <c r="K184" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="B113:K113"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A152:K152"/>
     <mergeCell ref="B153:K153"/>
     <mergeCell ref="A172:K172"/>
@@ -22827,21 +22846,6 @@
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="A153:A154"/>
     <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="B113:K113"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A113:A114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22864,528 +22868,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="O1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="30" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="30" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="30" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="30" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="30" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="30" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="30"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="30"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="30"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="27"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="30"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="27"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="30"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="30"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="30"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="30"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="30"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="30"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="30"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="30"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="30"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="27"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="30"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="27"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="30"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="30"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="27"/>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="57"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="31"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="28"/>
     </row>
     <row r="99" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
